--- a/cimtábla (1).xlsx
+++ b/cimtábla (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12_1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61227D3C-E1E8-4D79-9CEF-628EC5DEDB7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA71D351-4D61-43A8-BE47-176F318B5064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{D89D1DB3-AAE6-4CFF-A44C-7046E38F720D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="79">
   <si>
     <t>Alhálózati Maszk</t>
   </si>
@@ -241,6 +241,27 @@
   </si>
   <si>
     <t>192.168.26.66</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>Vlan1</t>
+  </si>
+  <si>
+    <t>192.168.27.7</t>
+  </si>
+  <si>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>192.168.28.2</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>192.168.28.130</t>
   </si>
 </sst>
 </file>
@@ -621,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489F2DA-B4AF-4E4E-B9DD-2391063EE7C5}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,6 +1327,48 @@
         <v>53</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A23:A24"/>

--- a/cimtábla (1).xlsx
+++ b/cimtábla (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12_1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA71D351-4D61-43A8-BE47-176F318B5064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBB646D-74E3-4F5A-BA69-7E88FEB87F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{D89D1DB3-AAE6-4CFF-A44C-7046E38F720D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D89D1DB3-AAE6-4CFF-A44C-7046E38F720D}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="120">
   <si>
     <t>Alhálózati Maszk</t>
   </si>
@@ -240,9 +251,6 @@
     <t>Vlan30</t>
   </si>
   <si>
-    <t>192.168.26.66</t>
-  </si>
-  <si>
     <t>SW4</t>
   </si>
   <si>
@@ -262,13 +270,139 @@
   </si>
   <si>
     <t>192.168.28.130</t>
+  </si>
+  <si>
+    <t>192.168.26.67</t>
+  </si>
+  <si>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>SW9</t>
+  </si>
+  <si>
+    <t>192.168.29.2</t>
+  </si>
+  <si>
+    <t>192.168.29.34</t>
+  </si>
+  <si>
+    <t>Vlan60</t>
+  </si>
+  <si>
+    <t>Vlan50</t>
+  </si>
+  <si>
+    <t>Vlan40</t>
+  </si>
+  <si>
+    <t>192.168.29.18</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>192.168.26.79</t>
+  </si>
+  <si>
+    <t>192.168.26.64</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>2001:DB8:F:2::12</t>
+  </si>
+  <si>
+    <t>PC28</t>
+  </si>
+  <si>
+    <t>PC29</t>
+  </si>
+  <si>
+    <t>PC30</t>
+  </si>
+  <si>
+    <t>PC31</t>
+  </si>
+  <si>
+    <t>PC32</t>
+  </si>
+  <si>
+    <t>PC33</t>
+  </si>
+  <si>
+    <t>Fa0/4</t>
+  </si>
+  <si>
+    <t>Fa0/3</t>
+  </si>
+  <si>
+    <t>Fa0/1</t>
+  </si>
+  <si>
+    <t>Fa0/2</t>
+  </si>
+  <si>
+    <t>Fa0</t>
+  </si>
+  <si>
+    <t>2001:DB8:F:3::10</t>
+  </si>
+  <si>
+    <t>2001:DB8:F:3::11</t>
+  </si>
+  <si>
+    <t>2001:DB8:F:1::11</t>
+  </si>
+  <si>
+    <t>2001:DB8:F:1::10</t>
+  </si>
+  <si>
+    <t>2001:DB8:F:2::11</t>
+  </si>
+  <si>
+    <t>2001:DB8:F:2::10</t>
+  </si>
+  <si>
+    <t>Dhcp Kliens</t>
+  </si>
+  <si>
+    <t>PC1-27</t>
+  </si>
+  <si>
+    <t>Igen</t>
+  </si>
+  <si>
+    <t>Eszköz</t>
+  </si>
+  <si>
+    <t>Line vty pwd</t>
+  </si>
+  <si>
+    <t>Line con pwd</t>
+  </si>
+  <si>
+    <t>Ssh username</t>
+  </si>
+  <si>
+    <t>Ssh pwd</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Line aux pwd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +415,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -301,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -309,11 +450,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +602,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,24 +945,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489F2DA-B4AF-4E4E-B9DD-2391063EE7C5}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -684,8 +992,29 @@
       <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -710,8 +1039,29 @@
       <c r="H2" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="10">
+        <v>123</v>
+      </c>
+      <c r="N2" s="10">
+        <v>123</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>18</v>
@@ -734,8 +1084,23 @@
       <c r="H3" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>22</v>
@@ -758,8 +1123,23 @@
       <c r="H4" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -784,8 +1164,23 @@
       <c r="H5" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>29</v>
@@ -808,8 +1203,23 @@
       <c r="H6" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>16</v>
@@ -832,8 +1242,23 @@
       <c r="H7" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>22</v>
@@ -856,8 +1281,23 @@
       <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>32</v>
@@ -880,8 +1320,23 @@
       <c r="H9" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -906,8 +1361,23 @@
       <c r="H10" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>16</v>
@@ -930,8 +1400,23 @@
       <c r="H11" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10">
+        <v>123</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>35</v>
@@ -954,8 +1439,21 @@
       <c r="H12" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>36</v>
@@ -978,8 +1476,21 @@
       <c r="H13" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1004,8 +1515,21 @@
       <c r="H14" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>45</v>
@@ -1028,8 +1552,21 @@
       <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>46</v>
@@ -1052,8 +1589,11 @@
       <c r="H16" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>35</v>
@@ -1076,8 +1616,11 @@
       <c r="H17" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>36</v>
@@ -1100,8 +1643,11 @@
       <c r="H18" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1126,8 +1672,11 @@
       <c r="H19" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>15</v>
@@ -1150,8 +1699,11 @@
       <c r="H20" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>16</v>
@@ -1174,8 +1726,11 @@
       <c r="H21" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>36</v>
@@ -1198,8 +1753,11 @@
       <c r="H22" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -1224,8 +1782,11 @@
       <c r="H23" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>63</v>
@@ -1248,8 +1809,11 @@
       <c r="H24" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1827,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>53</v>
@@ -1274,8 +1838,11 @@
       <c r="H25" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1856,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>53</v>
@@ -1300,8 +1867,11 @@
       <c r="H26" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1309,13 +1879,13 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>53</v>
@@ -1326,51 +1896,451 @@
       <c r="H27" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
         <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="Q2:Q15"/>
+    <mergeCell ref="M2:M15"/>
+    <mergeCell ref="N2:N15"/>
+    <mergeCell ref="O11:O15"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
@@ -1378,6 +2348,7 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A22"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
